--- a/biology/Botanique/Ophrys_bombyle/Ophrys_bombyle.xlsx
+++ b/biology/Botanique/Ophrys_bombyle/Ophrys_bombyle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ophrys bombylifora
 L’Ophrys bombyle (Ophrys bombyliflora) est une espèce d'orchidée terrestre d'aire méditerranéenne, appartenant au genre Ophrys L. 1753 et au groupe Ophrys tenthredinifera.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du grec βομβυλιός - bombulios, "insecte bourdonnant, bourdon" et du latin flos (fleur), se référant à la forme du labelle. Contrairement à ce qui est souvent écrit, le mot ne vient pas de βόμβυξ - bombux, "ver à soie, soie". La fleur ressemble à un bombyle (Bombylius, sorte de mouche)"[1], et le nom français doit être ophrys bombyle.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du grec βομβυλιός - bombulios, "insecte bourdonnant, bourdon" et du latin flos (fleur), se référant à la forme du labelle. Contrairement à ce qui est souvent écrit, le mot ne vient pas de βόμβυξ - bombux, "ver à soie, soie". La fleur ressemble à un bombyle (Bombylius, sorte de mouche)", et le nom français doit être ophrys bombyle.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante : 10-30 cm, d'aspect assez robuste, à inflorescence plutôt lâche.
 Feuilles : 5 à 8, basilaires et caulinaires, vert mat.
@@ -577,7 +593,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mars à mai.
 </t>
@@ -608,7 +626,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelouses et garrigues de faible altitude, sur substrat alcalin. Colonies parfois importantes en raison de la multiplication végétative.
 </t>
@@ -639,7 +659,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Aire méditerranéenne, des Îles Canaries à l'ouest jusqu'à Rhodes à l'est. Très rare en France continentale (en limite d'aire) : Aude, Hérault, Var, Alpes-Maritimes. Assez rare en Corse. Présente en Afrique du Nord, notamment en Algérie.
 </t>
@@ -670,7 +692,9 @@
           <t>Menace et Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>L'Ophrys bombyle est une espèce menacée :
 Protégée en France sur le plan national, se trouvant à ce titre sur la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain (rubrique Monocotylédones) ;
